--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/47/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/47/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.995995995995996</v>
+        <v>0.0488048804880488</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1319.319319319319</v>
+        <v>1253.985398539854</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08808808808808809</v>
+        <v>0.007600760076007601</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8388388388388388</v>
+        <v>0.4086408640864087</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>766.7667667667669</v>
+        <v>831.0031003100311</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>396.3963963963964</v>
+        <v>645.1845184518452</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67.06706706706707</v>
+        <v>98.51215121512151</v>
       </c>
     </row>
   </sheetData>
